--- a/plan/ut_as_plan.xlsx
+++ b/plan/ut_as_plan.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_script_asil\ut_auto\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA179E9D-7358-4685-9FEB-DE5DF398DA4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="8985" yWindow="870" windowWidth="16410" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
     <sheet name="bat file" sheetId="2" r:id="rId2"/>
+    <sheet name="py_structure" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>format_v1.txt</t>
   </si>
@@ -126,11 +137,71 @@
   <si>
     <t>Explain</t>
   </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Input factor</t>
+  </si>
+  <si>
+    <t>Output element</t>
+  </si>
+  <si>
+    <t>[a]int32_t var1</t>
+  </si>
+  <si>
+    <t>[a]uint32_t var2</t>
+  </si>
+  <si>
+    <t>Return value</t>
+  </si>
+  <si>
+    <t>[a]uint32_t * var2</t>
+  </si>
+  <si>
+    <t>[a]*var2</t>
+  </si>
+  <si>
+    <t>self.first_column</t>
+  </si>
+  <si>
+    <t>self.first_row</t>
+  </si>
+  <si>
+    <t>self.last_row</t>
+  </si>
+  <si>
+    <t>self.last_column</t>
+  </si>
+  <si>
+    <t>def coor_shift_up()</t>
+  </si>
+  <si>
+    <t>class cell_coor_handler()</t>
+  </si>
+  <si>
+    <t>class ws_handler(object)</t>
+  </si>
+  <si>
+    <t>def __init__(self)</t>
+  </si>
+  <si>
+    <t>self.ws</t>
+  </si>
+  <si>
+    <t>def coor_shift_down()</t>
+  </si>
+  <si>
+    <t>def coor_shift_left()</t>
+  </si>
+  <si>
+    <t>def coor_shift_right()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +245,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -235,16 +312,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -254,9 +408,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -271,6 +422,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,11 +727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +742,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -583,40 +760,40 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -624,42 +801,42 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -675,11 +852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,4 +874,417 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130AA0E1-53BA-4497-936F-AC0EF0887662}">
+  <dimension ref="B3:J29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEB391C-3998-45EB-8BEA-A2509593B6C1}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="2:7" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>$B$1&amp;"-"&amp;(ROW(B4)-ROW(B$4)+1)</f>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B6" si="0">$B$1&amp;"-"&amp;(ROW(B5)-ROW(B$4)+1)</f>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>1-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan/ut_as_plan.xlsx
+++ b/plan/ut_as_plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA179E9D-7358-4685-9FEB-DE5DF398DA4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="870" windowWidth="16410" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8985" yWindow="1320" windowWidth="16410" windowHeight="14715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="py_structure" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>format_v1.txt</t>
   </si>
@@ -162,33 +161,9 @@
     <t>[a]*var2</t>
   </si>
   <si>
-    <t>self.first_column</t>
-  </si>
-  <si>
-    <t>self.first_row</t>
-  </si>
-  <si>
-    <t>self.last_row</t>
-  </si>
-  <si>
-    <t>self.last_column</t>
-  </si>
-  <si>
     <t>def coor_shift_up()</t>
   </si>
   <si>
-    <t>class cell_coor_handler()</t>
-  </si>
-  <si>
-    <t>class ws_handler(object)</t>
-  </si>
-  <si>
-    <t>def __init__(self)</t>
-  </si>
-  <si>
-    <t>self.ws</t>
-  </si>
-  <si>
     <t>def coor_shift_down()</t>
   </si>
   <si>
@@ -196,12 +171,57 @@
   </si>
   <si>
     <t>def coor_shift_right()</t>
+  </si>
+  <si>
+    <t>self.FirstColumn</t>
+  </si>
+  <si>
+    <t>self.FirstRow</t>
+  </si>
+  <si>
+    <t>self.LastColumn</t>
+  </si>
+  <si>
+    <t>self.LastRow</t>
+  </si>
+  <si>
+    <t>self.CellValue</t>
+  </si>
+  <si>
+    <t>self.IsMergedCell</t>
+  </si>
+  <si>
+    <t>class CellCoorHandler()</t>
+  </si>
+  <si>
+    <t>class WsHandler(object)</t>
+  </si>
+  <si>
+    <t>=&gt; find cell and get cell attribute</t>
+  </si>
+  <si>
+    <t>=&gt; get coordinate of upper cell</t>
+  </si>
+  <si>
+    <t>=&gt; get coordinate of under cell</t>
+  </si>
+  <si>
+    <t>=&gt; get coordinate of left cell</t>
+  </si>
+  <si>
+    <t>=&gt; get coordinate of right cell</t>
+  </si>
+  <si>
+    <t>def __init__(self) -- contructor</t>
+  </si>
+  <si>
+    <t>self.ws =&gt; worksheet object</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,13 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -447,7 +460,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,7 +747,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -777,13 +798,13 @@
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -791,9 +812,9 @@
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -852,7 +873,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -877,337 +899,400 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130AA0E1-53BA-4497-936F-AC0EF0887662}">
-  <dimension ref="B3:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="15"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1215,7 +1300,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEB391C-3998-45EB-8BEA-A2509593B6C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -1230,21 +1316,21 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="2:7" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="10" t="s">
         <v>29</v>
       </c>

--- a/plan/ut_as_plan.xlsx
+++ b/plan/ut_as_plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB8764E-D947-4DBE-84EF-852C8CE80984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="1320" windowWidth="16410" windowHeight="14715" activeTab="2"/>
+    <workbookView xWindow="8985" yWindow="870" windowWidth="16410" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="py_structure" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,12 +192,6 @@
     <t>self.IsMergedCell</t>
   </si>
   <si>
-    <t>class CellCoorHandler()</t>
-  </si>
-  <si>
-    <t>class WsHandler(object)</t>
-  </si>
-  <si>
     <t>=&gt; find cell and get cell attribute</t>
   </si>
   <si>
@@ -216,12 +211,18 @@
   </si>
   <si>
     <t>self.ws =&gt; worksheet object</t>
+  </si>
+  <si>
+    <t>class ws_handler(object)</t>
+  </si>
+  <si>
+    <t>class cell_coor_handler()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,6 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -467,7 +469,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,7 +748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:E16"/>
   <sheetViews>
@@ -798,13 +799,13 @@
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -812,9 +813,9 @@
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -873,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:B3"/>
   <sheetViews>
@@ -899,19 +900,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -929,7 +930,7 @@
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
       <c r="C3" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -947,7 +948,7 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -978,7 +979,7 @@
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1098,7 +1099,7 @@
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1115,8 +1116,8 @@
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="26" t="s">
-        <v>46</v>
+      <c r="E14" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -1149,8 +1150,8 @@
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="26" t="s">
-        <v>47</v>
+      <c r="E16" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -1183,8 +1184,8 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="26" t="s">
-        <v>48</v>
+      <c r="E18" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -1217,8 +1218,8 @@
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="26" t="s">
-        <v>49</v>
+      <c r="E20" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -1251,8 +1252,8 @@
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="26" t="s">
-        <v>50</v>
+      <c r="E22" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -1300,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G6"/>
   <sheetViews>
@@ -1316,21 +1317,21 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="2:7" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="10" t="s">
         <v>29</v>
       </c>

--- a/plan/ut_as_plan.xlsx
+++ b/plan/ut_as_plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB8764E-D947-4DBE-84EF-852C8CE80984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="870" windowWidth="16410" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8985" yWindow="1320" windowWidth="16410" windowHeight="14715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="py_structure" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>format_v1.txt</t>
   </si>
@@ -162,67 +161,49 @@
     <t>[a]*var2</t>
   </si>
   <si>
-    <t>def coor_shift_up()</t>
-  </si>
-  <si>
-    <t>def coor_shift_down()</t>
-  </si>
-  <si>
-    <t>def coor_shift_left()</t>
-  </si>
-  <si>
-    <t>def coor_shift_right()</t>
-  </si>
-  <si>
-    <t>self.FirstColumn</t>
-  </si>
-  <si>
-    <t>self.FirstRow</t>
-  </si>
-  <si>
-    <t>self.LastColumn</t>
-  </si>
-  <si>
-    <t>self.LastRow</t>
-  </si>
-  <si>
-    <t>self.CellValue</t>
-  </si>
-  <si>
-    <t>self.IsMergedCell</t>
-  </si>
-  <si>
-    <t>=&gt; find cell and get cell attribute</t>
-  </si>
-  <si>
-    <t>=&gt; get coordinate of upper cell</t>
-  </si>
-  <si>
-    <t>=&gt; get coordinate of under cell</t>
-  </si>
-  <si>
-    <t>=&gt; get coordinate of left cell</t>
-  </si>
-  <si>
-    <t>=&gt; get coordinate of right cell</t>
-  </si>
-  <si>
-    <t>def __init__(self) -- contructor</t>
-  </si>
-  <si>
-    <t>self.ws =&gt; worksheet object</t>
-  </si>
-  <si>
-    <t>class ws_handler(object)</t>
-  </si>
-  <si>
-    <t>class cell_coor_handler()</t>
+    <t>first_col</t>
+  </si>
+  <si>
+    <t>first_row</t>
+  </si>
+  <si>
+    <t>last_col</t>
+  </si>
+  <si>
+    <t>last_row</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>merged_cell</t>
+  </si>
+  <si>
+    <t>find_cell</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>---&gt;</t>
+  </si>
+  <si>
+    <t>excel file</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>write</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -333,91 +314,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -449,19 +350,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -469,6 +357,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,12 +648,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,13 +699,13 @@
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -813,9 +713,9 @@
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -874,12 +774,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,413 +800,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:N24"/>
+  <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="3.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="16"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="F3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="J4" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="F6" s="16"/>
+      <c r="J6" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="J7" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="J8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="B3:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,21 +923,21 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:7" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="10" t="s">
         <v>29</v>
       </c>

--- a/plan/ut_as_plan.xlsx
+++ b/plan/ut_as_plan.xlsx
@@ -5,19 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ut_auto\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="1320" windowWidth="16410" windowHeight="14715" activeTab="2"/>
+    <workbookView xWindow="8985" yWindow="1770" windowWidth="16410" windowHeight="14715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
     <sheet name="bat file" sheetId="2" r:id="rId2"/>
     <sheet name="py_structure" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>format_v1.txt</t>
   </si>
@@ -198,6 +199,96 @@
   </si>
   <si>
     <t>write</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>first column of cell</t>
+  </si>
+  <si>
+    <t>first row of cell</t>
+  </si>
+  <si>
+    <t>last column of cell</t>
+  </si>
+  <si>
+    <t>last row of cell</t>
+  </si>
+  <si>
+    <t>value of cell</t>
+  </si>
+  <si>
+    <t>find cell first/last col/row and value by "str":"Input" or "list/tuple":[column, row]/(column, row) or "cell object"</t>
+  </si>
+  <si>
+    <t>shift cell up by update first/last col/row and value of cell</t>
+  </si>
+  <si>
+    <t>shift cell down by update first/last col/row and value of cell</t>
+  </si>
+  <si>
+    <t>shift cell left by update first/last col/row and value of cell</t>
+  </si>
+  <si>
+    <t>shift cell right by update first/last col/row and value of cell</t>
+  </si>
+  <si>
+    <t>testcase</t>
+  </si>
+  <si>
+    <t>tc_col</t>
+  </si>
+  <si>
+    <t>first_tc_row</t>
+  </si>
+  <si>
+    <t>last_tc_row</t>
+  </si>
+  <si>
+    <t>total_tc</t>
+  </si>
+  <si>
+    <t>find_cell()</t>
+  </si>
+  <si>
+    <t>coor_shift_up()</t>
+  </si>
+  <si>
+    <t>coor_shift_down()</t>
+  </si>
+  <si>
+    <t>coor_shift_left()</t>
+  </si>
+  <si>
+    <t>coor_shift_right()</t>
+  </si>
+  <si>
+    <t>get_info()</t>
+  </si>
+  <si>
+    <t>test case cell's column</t>
+  </si>
+  <si>
+    <t>the first test case cell' row</t>
+  </si>
+  <si>
+    <t>the last test case cell' row</t>
+  </si>
+  <si>
+    <t>total of test case</t>
+  </si>
+  <si>
+    <t>get the above information</t>
   </si>
 </sst>
 </file>
@@ -318,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -350,24 +441,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,13 +799,13 @@
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -713,9 +813,9 @@
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -804,8 +904,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,60 +939,60 @@
       <c r="F3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
       <c r="F4" s="16"/>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="16"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="F6" s="16"/>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="F7" s="16"/>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="F8" s="16"/>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -907,6 +1007,192 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B15:B19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G6"/>
@@ -923,21 +1209,21 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:7" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="10" t="s">
         <v>29</v>
       </c>
